--- a/pedidos2.xlsx
+++ b/pedidos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paucasals\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E2474-8A77-4909-9C9D-182EDEF12101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE9A0C-0C3A-4E2C-8E40-AFAD6250CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$2156</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10786" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10788" uniqueCount="83">
   <si>
     <t>Id. de pedido</t>
   </si>
@@ -279,6 +266,12 @@
   </si>
   <si>
     <t>País de destino</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -698,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2156"/>
+  <dimension ref="A1:N2156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -719,7 +712,7 @@
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +747,14 @@
         <v>79</v>
       </c>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -792,7 +791,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -829,7 +828,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -866,7 +865,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -903,7 +902,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -940,7 +939,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -977,7 +976,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1014,7 +1013,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1051,7 +1050,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1088,7 +1087,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1125,7 +1124,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1162,7 +1161,7 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1199,7 +1198,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1236,7 +1235,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
